--- a/web/import/segmentation.xlsx
+++ b/web/import/segmentation.xlsx
@@ -507,52 +507,52 @@
     <t>MOUSSA</t>
   </si>
   <si>
-    <t>Brazaville</t>
-  </si>
-  <si>
-    <t>Pointe Noir</t>
-  </si>
-  <si>
     <t>numero</t>
   </si>
   <si>
     <t>Pointe-Noir</t>
   </si>
   <si>
-    <t>Brazaville1</t>
-  </si>
-  <si>
-    <t>Brazaville4</t>
-  </si>
-  <si>
-    <t>Brazaville2</t>
-  </si>
-  <si>
-    <t>Brazaville6</t>
-  </si>
-  <si>
-    <t>Brazaville5</t>
-  </si>
-  <si>
-    <t>Brazaville3</t>
-  </si>
-  <si>
-    <t>Pointe Noir6</t>
-  </si>
-  <si>
-    <t>Pointe Noir4</t>
-  </si>
-  <si>
-    <t>Pointe Noir5</t>
-  </si>
-  <si>
-    <t>Pointe Noir7</t>
-  </si>
-  <si>
-    <t>Pointe Noir8</t>
-  </si>
-  <si>
-    <t>Pointe Noir1</t>
+    <t>Brazzaville4</t>
+  </si>
+  <si>
+    <t>Brazzaville2</t>
+  </si>
+  <si>
+    <t>Brazzaville1</t>
+  </si>
+  <si>
+    <t>Brazzaville6</t>
+  </si>
+  <si>
+    <t>Brazzaville5</t>
+  </si>
+  <si>
+    <t>Brazzaville3</t>
+  </si>
+  <si>
+    <t>Brazzaville</t>
+  </si>
+  <si>
+    <t>Pointe-Noire</t>
+  </si>
+  <si>
+    <t>Pointe-Noire6</t>
+  </si>
+  <si>
+    <t>Pointe-Noire4</t>
+  </si>
+  <si>
+    <t>Pointe-Noire5</t>
+  </si>
+  <si>
+    <t>Pointe-Noire7</t>
+  </si>
+  <si>
+    <t>Pointe-Noire8</t>
+  </si>
+  <si>
+    <t>Pointe-Noire1</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,12 +1150,12 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B9" s="2">
         <v>4</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B10" s="2">
         <v>5</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B11" s="2">
         <v>6</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B12" s="2">
         <v>7</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B13" s="2">
         <v>8</v>
@@ -1258,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,10 +1318,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -1341,10 +1341,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="G4" s="2">
         <v>2</v>
@@ -1364,10 +1364,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="G5" s="2">
         <v>3</v>
@@ -1390,7 +1390,7 @@
         <v>164</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="G6" s="2">
         <v>4</v>
@@ -1410,10 +1410,10 @@
         <v>17</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="G7" s="2">
         <v>5</v>
@@ -1433,10 +1433,10 @@
         <v>19</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="G8" s="2">
         <v>6</v>
@@ -1450,7 +1450,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="5" t="s">
@@ -1472,10 +1472,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -1495,10 +1495,10 @@
         <v>25</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G11" s="2">
         <v>4</v>
@@ -1518,10 +1518,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G12" s="2">
         <v>5</v>
@@ -1541,10 +1541,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G13" s="2">
         <v>6</v>
@@ -1564,10 +1564,10 @@
         <v>31</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G14" s="2">
         <v>7</v>
@@ -1587,10 +1587,10 @@
         <v>33</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G15" s="2">
         <v>8</v>
@@ -1610,7 +1610,7 @@
         <v>35</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="8" t="s">
@@ -1634,7 +1634,7 @@
         <v>39</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1642,7 +1642,7 @@
         <v>41</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1650,7 +1650,7 @@
         <v>43</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1658,7 +1658,7 @@
         <v>45</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1666,7 +1666,7 @@
         <v>47</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1674,7 +1674,7 @@
         <v>49</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1682,7 +1682,7 @@
         <v>51</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1690,7 +1690,7 @@
         <v>53</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1698,7 +1698,7 @@
         <v>55</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1706,7 +1706,7 @@
         <v>57</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1714,7 +1714,7 @@
         <v>59</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1722,7 +1722,7 @@
         <v>60</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1730,7 +1730,7 @@
         <v>62</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1738,7 +1738,7 @@
         <v>64</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1746,7 +1746,7 @@
         <v>66</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1754,7 +1754,7 @@
         <v>68</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1762,7 +1762,7 @@
         <v>70</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1770,7 +1770,7 @@
         <v>72</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1778,7 +1778,7 @@
         <v>74</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1786,7 +1786,7 @@
         <v>76</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1794,7 +1794,7 @@
         <v>78</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1802,7 +1802,7 @@
         <v>80</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1810,7 +1810,7 @@
         <v>82</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1818,7 +1818,7 @@
         <v>84</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1826,7 +1826,7 @@
         <v>86</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1834,7 +1834,7 @@
         <v>88</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1842,7 +1842,7 @@
         <v>90</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1850,7 +1850,7 @@
         <v>92</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1858,7 +1858,7 @@
         <v>94</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1866,7 +1866,7 @@
         <v>96</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1874,7 +1874,7 @@
         <v>98</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1882,7 +1882,7 @@
         <v>100</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
         <v>102</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1898,7 +1898,7 @@
         <v>104</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1906,7 +1906,7 @@
         <v>106</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1914,7 +1914,7 @@
         <v>108</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1922,7 +1922,7 @@
         <v>110</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1930,7 +1930,7 @@
         <v>111</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1938,7 +1938,7 @@
         <v>113</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1946,7 +1946,7 @@
         <v>115</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1954,7 +1954,7 @@
         <v>117</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1962,7 +1962,7 @@
         <v>119</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1970,7 +1970,7 @@
         <v>120</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1978,7 +1978,7 @@
         <v>121</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1986,7 +1986,7 @@
         <v>122</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1994,7 +1994,7 @@
         <v>123</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2002,7 +2002,7 @@
         <v>124</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2018,7 +2018,7 @@
         <v>126</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2026,7 +2026,7 @@
         <v>127</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2034,7 +2034,7 @@
         <v>128</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2042,7 +2042,7 @@
         <v>129</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2050,7 +2050,7 @@
         <v>130</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2058,7 +2058,7 @@
         <v>131</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2066,7 +2066,7 @@
         <v>132</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2074,7 +2074,7 @@
         <v>133</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2082,7 +2082,7 @@
         <v>134</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2090,7 +2090,7 @@
         <v>135</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2098,7 +2098,7 @@
         <v>136</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2106,7 +2106,7 @@
         <v>137</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2114,7 +2114,7 @@
         <v>138</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2122,7 +2122,7 @@
         <v>139</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2130,7 +2130,7 @@
         <v>140</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2138,7 +2138,7 @@
         <v>141</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2146,7 +2146,7 @@
         <v>142</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2154,7 +2154,7 @@
         <v>143</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2162,7 +2162,7 @@
         <v>144</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2170,7 +2170,7 @@
         <v>145</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
